--- a/Pheno Data.xlsx
+++ b/Pheno Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15de357c2d4b6bc6/Bilder/Fotografie/Dokumente/GitHub/CROP-SHIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{F8D879D4-6D9D-45AB-8F1E-531FA26915DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{673A6A43-296A-4AA7-82C2-734612AE620F}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="8_{F8D879D4-6D9D-45AB-8F1E-531FA26915DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E1B333-A7B7-4BB0-B1DC-1044E4577606}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E871ECE7-53CF-4A46-A9F9-F539054801C8}"/>
+    <workbookView xWindow="-28920" yWindow="3510" windowWidth="29040" windowHeight="17520" xr2:uid="{E871ECE7-53CF-4A46-A9F9-F539054801C8}"/>
   </bookViews>
   <sheets>
     <sheet name="EBLUPs for Multiscore" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="177">
   <si>
     <t>Genotype</t>
   </si>
@@ -562,6 +562,18 @@
   </si>
   <si>
     <t>SeedQuality</t>
+  </si>
+  <si>
+    <t>Allele</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
@@ -642,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -654,10 +666,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -673,6 +681,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,21 +1004,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9E0584-605C-4FBE-939D-41EFA4157932}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="8"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="8"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,372 +1026,411 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>171</v>
       </c>
     </row>
